--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H2">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I2">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J2">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>46.21805490756535</v>
+        <v>61.73924032579</v>
       </c>
       <c r="R2">
-        <v>46.21805490756535</v>
+        <v>555.65316293211</v>
       </c>
       <c r="S2">
-        <v>0.05446958794606943</v>
+        <v>0.06003522026859078</v>
       </c>
       <c r="T2">
-        <v>0.05446958794606943</v>
+        <v>0.06003522026859078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H3">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I3">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J3">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>12.75473226490417</v>
+        <v>16.82841851105333</v>
       </c>
       <c r="R3">
-        <v>12.75473226490417</v>
+        <v>151.45576659948</v>
       </c>
       <c r="S3">
-        <v>0.01503189634919157</v>
+        <v>0.01636394951981764</v>
       </c>
       <c r="T3">
-        <v>0.01503189634919157</v>
+        <v>0.01636394951981764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H4">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I4">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J4">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>25.2512123498645</v>
+        <v>36.51459847545934</v>
       </c>
       <c r="R4">
-        <v>25.2512123498645</v>
+        <v>328.6313862791341</v>
       </c>
       <c r="S4">
-        <v>0.02975943350681075</v>
+        <v>0.03550678548886566</v>
       </c>
       <c r="T4">
-        <v>0.02975943350681075</v>
+        <v>0.03550678548886567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H5">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I5">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J5">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>4.333995087028618</v>
+        <v>8.387826962401334</v>
       </c>
       <c r="R5">
-        <v>4.333995087028618</v>
+        <v>75.49044266161201</v>
       </c>
       <c r="S5">
-        <v>0.005107764206496196</v>
+        <v>0.0081563206253485</v>
       </c>
       <c r="T5">
-        <v>0.005107764206496196</v>
+        <v>0.0081563206253485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H6">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I6">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J6">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>289.0453228921834</v>
+        <v>305.4133441033683</v>
       </c>
       <c r="R6">
-        <v>289.0453228921834</v>
+        <v>2748.720096930315</v>
       </c>
       <c r="S6">
-        <v>0.3406499833704313</v>
+        <v>0.2969838515903055</v>
       </c>
       <c r="T6">
-        <v>0.3406499833704313</v>
+        <v>0.2969838515903055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H7">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I7">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J7">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>79.7674353298911</v>
+        <v>83.24727590282443</v>
       </c>
       <c r="R7">
-        <v>79.7674353298911</v>
+        <v>749.2254831254198</v>
       </c>
       <c r="S7">
-        <v>0.09400870163453592</v>
+        <v>0.08094962813299345</v>
       </c>
       <c r="T7">
-        <v>0.09400870163453592</v>
+        <v>0.08094962813299345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H8">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I8">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J8">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>157.9197748949611</v>
+        <v>180.6314034661568</v>
       </c>
       <c r="R8">
-        <v>157.9197748949611</v>
+        <v>1625.682631195411</v>
       </c>
       <c r="S8">
-        <v>0.1861139566402773</v>
+        <v>0.1756459269225168</v>
       </c>
       <c r="T8">
-        <v>0.1861139566402773</v>
+        <v>0.1756459269225168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H9">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I9">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J9">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N9">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q9">
-        <v>27.10458092294722</v>
+        <v>41.49312931013311</v>
       </c>
       <c r="R9">
-        <v>27.10458092294722</v>
+        <v>373.438163791198</v>
       </c>
       <c r="S9">
-        <v>0.0319436929415687</v>
+        <v>0.04034790749970386</v>
       </c>
       <c r="T9">
-        <v>0.0319436929415687</v>
+        <v>0.04034790749970386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H10">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I10">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J10">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N10">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q10">
-        <v>24.892290401576</v>
+        <v>33.24429555042666</v>
       </c>
       <c r="R10">
-        <v>24.892290401576</v>
+        <v>299.19865995384</v>
       </c>
       <c r="S10">
-        <v>0.02933643148590841</v>
+        <v>0.03232674382632937</v>
       </c>
       <c r="T10">
-        <v>0.02933643148590841</v>
+        <v>0.03232674382632937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H11">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I11">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J11">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N11">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q11">
-        <v>6.869490725373986</v>
+        <v>9.061480440568888</v>
       </c>
       <c r="R11">
-        <v>6.869490725373986</v>
+        <v>81.55332396511999</v>
       </c>
       <c r="S11">
-        <v>0.008095934152980074</v>
+        <v>0.008811381081762916</v>
       </c>
       <c r="T11">
-        <v>0.008095934152980074</v>
+        <v>0.008811381081762916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H12">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I12">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J12">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N12">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q12">
-        <v>13.59989103959028</v>
+        <v>19.66175963969956</v>
       </c>
       <c r="R12">
-        <v>13.59989103959028</v>
+        <v>176.955836757296</v>
       </c>
       <c r="S12">
-        <v>0.01602794541049947</v>
+        <v>0.01911908965203723</v>
       </c>
       <c r="T12">
-        <v>0.01602794541049947</v>
+        <v>0.01911908965203723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H13">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I13">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J13">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N13">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q13">
-        <v>2.334219051863665</v>
+        <v>4.516534332014222</v>
       </c>
       <c r="R13">
-        <v>2.334219051863665</v>
+        <v>40.648808988128</v>
       </c>
       <c r="S13">
-        <v>0.002750958476836869</v>
+        <v>0.00439187673904468</v>
       </c>
       <c r="T13">
-        <v>0.002750958476836869</v>
+        <v>0.00439187673904468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H14">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I14">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J14">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N14">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O14">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P14">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q14">
-        <v>82.67884899389252</v>
+        <v>113.8299232493</v>
       </c>
       <c r="R14">
-        <v>82.67884899389252</v>
+        <v>1024.4693092437</v>
       </c>
       <c r="S14">
-        <v>0.09743990407124328</v>
+        <v>0.1106881859797335</v>
       </c>
       <c r="T14">
-        <v>0.09743990407124328</v>
+        <v>0.1106881859797335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H15">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I15">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J15">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N15">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P15">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q15">
-        <v>22.816766845697</v>
+        <v>31.02690569906666</v>
       </c>
       <c r="R15">
-        <v>22.816766845697</v>
+        <v>279.2421512916</v>
       </c>
       <c r="S15">
-        <v>0.02689035466404319</v>
+        <v>0.03017055454629821</v>
       </c>
       <c r="T15">
-        <v>0.02689035466404319</v>
+        <v>0.03017055454629821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H16">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I16">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J16">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N16">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O16">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P16">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q16">
-        <v>45.17154988375381</v>
+        <v>67.32272570908667</v>
       </c>
       <c r="R16">
-        <v>45.17154988375381</v>
+        <v>605.9045313817801</v>
       </c>
       <c r="S16">
-        <v>0.05323624531526185</v>
+        <v>0.06546459991569746</v>
       </c>
       <c r="T16">
-        <v>0.05323624531526185</v>
+        <v>0.06546459991569747</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H17">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I17">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J17">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N17">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O17">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P17">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q17">
-        <v>7.753024787766583</v>
+        <v>15.46481126622667</v>
       </c>
       <c r="R17">
-        <v>7.753024787766583</v>
+        <v>139.18330139604</v>
       </c>
       <c r="S17">
-        <v>0.009137209827845482</v>
+        <v>0.01503797821095432</v>
       </c>
       <c r="T17">
-        <v>0.009137209827845482</v>
+        <v>0.01503797821095432</v>
       </c>
     </row>
   </sheetData>
